--- a/outputs/DHAKA5.xlsx
+++ b/outputs/DHAKA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: ABI is motivated to use technology to accomplish their tasks, such as creating a new issue. The comprehensive information processing style means ABI will read through the entire page to find relevant information. The "Bug Reports, Suggestions, Other Feedback" section at the bottom of the page provides a clear indication of where to report issues, which ABI will recognize as a step toward achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the issue tracker as a necessary step toward creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The page provides a clear navigation bar at the top with an "Issues" link. ABI's comprehensive information processing style means they will read through the page and notice this link. Additionally, the learning style of preferring structured guidance aligns with the clearly labeled "Issues" link, making ABI confident about clicking it to proceed with the task of finding the issue tracker.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" link is a logical step toward finding the issue tracker and creating a new issue. The page provides enough context for Abi to understand that this link will lead her to the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a "New issue" button prominently displayed. This strongly indicates that ABI is on the correct path toward creating a new issue. The page layout aligns well with ABI's motivation to complete tasks and the comprehensive information processing style, as it provides all necessary options and a clear next step for progressing toward the goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, Abi is taken to a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that she is in the right place to create a new issue. The presence of the "New issue" button and the list of existing issues will help Abi understand that she is making progress toward her goal of creating a new issue. The page is well-organized and provides the necessary information for her to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "New issue" button is prominently displayed and clearly labeled on the issues page, making it easy for ABI to identify the next step in creating a new issue. ABI's motivation to accomplish tasks and their comprehensive information processing style will guide them to this button without confusion. The visibility and clear labeling of the button provide confidence that clicking it is the correct action to take for making progress toward the goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "New issue" button is the next logical step toward creating a new issue. The page provides a straightforward path for her to follow, ensuring she knows what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "New Issue" button, ABI lands on a page that offers clear options for different types of issues they can report, such as "Bug report" and "Suggestion for improvement," with corresponding "Get started" buttons. This clear categorization and actionable buttons align well with ABI's motivation to complete tasks efficiently and their preference for comprehensively processed information. The layout is straightforward and intuitive, ensuring ABI knows they are making progress toward creating a new issue and providing the necessary options to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, Abi is taken to a page that clearly categorizes different types of issues she can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a "Get started" button, making it clear what to do next. This page provides a straightforward path for Abi to follow, ensuring she knows that she did the right thing and is making progress toward her goal. The page is well-organized and provides the necessary information for her to proceed.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page provides clearly labeled options for different actions, including "Bug report" with a "Get started" button. This aligns with ABI's motivation to complete tasks and their comprehensive information processing style. The clear labeling and straightforward call-to-action button make it evident what ABI should do next, ensuring they know to click "Get started" to proceed with reporting a bug.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Get started" button for "Bug report" is clearly labeled and prominently displayed. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that clicking the "Get started" button is the next logical step toward creating a new issue. The page is straightforward and provides clear instructions, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the "Get Started" button for "Bug report," ABI is directed to a detailed bug report form. The form provides clear fields for all necessary information, such as the title, version, operating system, and steps to reproduce the behavior. This layout aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style, as it offers a structured and guided way to input all relevant details. The presence of a "Submit new issue" button at the end of the form further confirms that ABI is making progress toward their goal and has all the information needed to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get Started" button for "Bug Report," Abi is taken to a detailed form specifically for reporting bugs. The form includes fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides clear guidance on what information is needed, ensuring that Abi knows she is making progress toward her goal. The comprehensive nature of the form aligns with Abi's information processing style, providing all the necessary information she needs to complete the task.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and additional details. ABI will be motivated to fill out the form as it aligns with their goal of reporting an issue. The form provides comprehensive guidance on what information is required, which suits ABI's comprehensive information processing style. The clear instructions and required fields make it easy for ABI to understand what to do at this step and ensure they provide all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and other relevant details. Each field is accompanied by a brief description, guiding Abi on what information to provide. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know what to do at this step. The form provides clear instructions and necessary context, making it easy for Abi to fill out the required information.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, ABI will see that all the required fields are completed, and the "Submit new issue" button is enabled. This clear indication that the form is ready to be submitted aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The page layout ensures that ABI knows they have done the right thing and are making progress toward their goal, as it provides all the necessary information for creating a new issue and a clear call-to-action for submission.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, Abi can see that all the required fields are completed, and the "Submit new issue" button is available. The form is well-structured, and the fields are clearly labeled, providing Abi with the necessary information to ensure she has filled out the form correctly. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will know that she did the right thing and is making progress toward her goal. The page provides clear feedback and instructions, ensuring Abi has all the information she needs to proceed.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form, and its green color indicates it is the next actionable step. ABI, motivated to complete tasks and with a comprehensive information processing style, will recognize this button as the final step to submit the bug report. The clear layout and the logical placement of the button make it easy for ABI to understand what to do next and ensure they are on the right path to achieving their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy to find. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will recognize that clicking the "Submit new issue" button is the final step in creating a new issue. The page provides clear instructions and necessary context, ensuring Abi knows what to do at this step and feels confident in taking the action.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Submit new issue," ABI is redirected to a page that displays the newly created issue with all the details they entered. The page shows the issue's status as "Open," the issue number, and the information ABI provided. This clear feedback confirms that the issue has been successfully submitted, aligning with ABI's motivation to complete tasks. The comprehensive display of all the entered details reassures ABI that they are making progress toward their goal and have successfully completed the action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, Abi is taken to a page that displays the newly created issue with all the details she provided. The issue is clearly labeled as "Open," and the information she entered is displayed in an organized manner. This provides clear feedback that she has successfully submitted the issue and is making progress toward her goal. The page also offers options to edit the issue or add comments, ensuring Abi has all the information she needs to proceed. This aligns with her motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA5.xlsx
+++ b/outputs/DHAKA5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The subgoal of finding the issue tracker is directly related to the overall use case of creating a new issue. ABI is motivated to accomplish their tasks and will recognize that locating the issue tracker is a necessary step. Additionally, ABI's comprehensive information processing style will lead them to gather all relevant information, including finding the issue tracker, to form a complete understanding of how to create a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to finding the issue tracker. ABI is motivated to accomplish the task and will likely read through the page comprehensively to gather information. This aligns with ABI's information processing style, where they gather all necessary information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The 'Issues' link is clearly visible on the page, and it is labeled in a way that indicates it will lead to the issue tracker. ABI, being motivated to accomplish their task of creating a new issue, will recognize that clicking on the 'Issues' link is a logical step. Additionally, ABI's comprehensive information processing style will help them understand that this link is relevant to their subgoal of finding the issue tracker.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI is motivated to complete the task and will likely read through the page comprehensively to gather information. The presence of the "Issues" link aligns with ABI's information processing style, as it provides a clear and direct path to the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on the 'Issues' link, ABI will land on a page that clearly lists existing issues and includes a 'New issue' button. This page provides a clear indication that ABI is in the right place to create a new issue. The presence of the 'New issue' button and the list of existing issues will confirm to ABI that they are making progress toward their goal. The page is well-organized and provides all the necessary information for ABI to proceed with creating a new issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and provides a "New issue" button. This page is straightforward and directly related to the task of creating a new issue. The presence of the "New issue" button and the list of issues will confirm to ABI that they are in the right place and making progress toward their goal. The page provides all the necessary information in a clear and organized manner, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The 'New issue' button is prominently displayed on the page, making it clear and easy for ABI to identify the next step in creating a new issue. ABI, being motivated to complete their task, will recognize that clicking this button is the logical next action. The page is well-organized and provides a clear path forward, aligning with ABI's comprehensive information processing style. This will give ABI the confidence to proceed with clicking the 'New issue' button.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI is motivated to complete the task and will likely read through the page comprehensively to gather information. The presence of the "New issue" button provides a clear and direct path to creating a new issue, aligning with ABI's comprehensive information processing style. The page is straightforward and provides all the necessary information for ABI to take the next action confidently.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the 'New issue' button, ABI will land on a page that clearly categorizes different types of issues they can report, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability." Each category has a 'Get started' button, making it clear what to do next. This page provides a straightforward path for ABI to follow, confirming that they are making progress toward their goal. The clear categorization and instructions align with ABI's comprehensive information processing style, ensuring they have all the information they need to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "New issue" button, ABI will land on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, etc.) with "Get started" buttons next to each category. This clear categorization and the presence of "Get started" buttons provide ABI with a straightforward path to proceed with creating a new issue. The page is well-organized and provides all the necessary information, aligning with ABI's comprehensive information processing style and ensuring that ABI knows they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The 'Get started' button for 'Bug report' is clearly labeled and prominently displayed, making it easy for ABI to understand what to do next. ABI, being motivated to create a new issue, will recognize that clicking this button is the appropriate action to take. The page is straightforward and provides clear instructions, aligning with ABI's comprehensive information processing style. This will give ABI the confidence to proceed with clicking the 'Get started' button for 'Bug report'.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists different types of issues with corresponding "Get started" buttons, including one for "Bug report." The text next to the button ("Create a report to help us improve") provides a clear indication of what the button does. This straightforward and well-organized layout aligns with ABI's comprehensive information processing style and ensures that ABI knows what to do at this step. The page is good enough for ABI to take this action confidently, as it provides all the necessary information in a clear and concise manner.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the 'Get Started' button for 'Bug Report,' ABI will land on a detailed form specifically for reporting bugs. The form is well-structured, with clear fields for entering the necessary information, such as the title, version, operating system, and steps to reproduce the behavior. This layout provides ABI with a clear path to follow, confirming that they are making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, ensuring they have all the information they need to complete the bug report.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Get started" button for "Bug Report," ABI will land on a detailed form specifically for reporting bugs. The form includes clear fields for entering the title, version, operating system, steps to reproduce the behavior, and other relevant details. This structured format provides ABI with all the necessary information and guidance to proceed with creating a new issue. The comprehensive nature of the form aligns with ABI's information processing style, ensuring that ABI knows they are making progress toward their goal and have all the information they need to complete the task.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The bug report form is well-structured and clearly labeled, with fields for all the necessary information such as the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, guiding ABI on what information to provide. This clear and organized layout aligns with ABI's comprehensive information processing style, making it easy for them to understand what to do at this step. ABI's motivation to complete the task will drive them to fill out the form, and the page provides all the necessary information to do so effectively.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for the title, version, operating system, steps to reproduce the behavior, and additional details. Each field is accompanied by a brief description, guiding ABI on what information to provide. This clear and detailed layout aligns with ABI's comprehensive information processing style, ensuring that ABI knows what to do at this step. The page provides all the necessary information for ABI to fill out the form confidently, making it good enough for ABI to take this action.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, ABI will see that all the required fields are completed, and the 'Submit new issue' button is enabled. This clear indication that the form is ready to be submitted will confirm to ABI that they have done the right thing and are making progress toward their goal. The form's layout and instructions provide all the necessary information, ensuring ABI can confidently proceed with submitting the bug report. This aligns with ABI's comprehensive information processing style and motivation to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After filling out the bug report form, ABI will see the completed form with all the entered details. The form is well-structured, and the "Submit new issue" button is clearly visible at the bottom. This clear layout and the presence of the submit button provide ABI with confirmation that they have done the right thing and are making progress toward their goal. The comprehensive nature of the form ensures that ABI has all the information they need to complete the task, aligning with their information processing style.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The 'Submit new issue' button is clearly visible and labeled, making it easy for ABI to understand that this is the final step to complete the bug report. ABI, being motivated to finish the task, will recognize that clicking this button is the appropriate action to take. The page provides a clear and straightforward path, ensuring ABI knows they are making progress toward their goal. The comprehensive layout and instructions align with ABI's information processing style, giving them the confidence to proceed with submitting the bug report.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Submit new issue" button is prominently displayed at the bottom of the form, making it clear and easy to find. ABI is motivated to complete the task and will likely read through the form comprehensively to ensure all required fields are filled out. The presence of the "Submit new issue" button provides a clear and direct path to submitting the bug report, aligning with ABI's comprehensive information processing style. The page is well-organized and provides all the necessary information for ABI to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the 'Submit new issue' button, ABI will land on a page that shows the newly created issue with all the details they entered. The issue is clearly labeled as "Open," and the information ABI provided is displayed in an organized manner. This confirmation page provides clear feedback that the issue has been successfully submitted, ensuring ABI knows they did the right thing and are making progress toward their goal. The comprehensive display of the submitted information aligns with ABI's information processing style, giving them confidence that all necessary details have been captured.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the "Submit new issue" button, ABI will land on a page that displays the newly created issue with all the details they entered. The issue is clearly marked as "Open," and the information ABI provided is displayed in an organized manner. This immediate feedback confirms to ABI that they have done the right thing and are making progress toward their goal. The page provides all the necessary information, including options to edit the issue or add comments, aligning with ABI's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
